--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_28_35.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_28_35.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>58352.8334170688</v>
+        <v>11473683.79764544</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>58352.8334170688</v>
+        <v>11473683.79764544</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4961.197799203176</v>
+        <v>696371.13274158</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4961.197799203176</v>
+        <v>696371.13274158</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1343434448.825083</v>
+        <v>55692025.92005789</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12086.85554974092</v>
+        <v>1367338.131445307</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>22481.11305659647</v>
+        <v>2469293.041736327</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>32876.17686218083</v>
+        <v>3571247.952027348</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>43348.6175059239</v>
+        <v>4638435.531969895</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>53837.21935181016</v>
+        <v>5747149.351450821</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>64261.95388657582</v>
+        <v>6849104.26174184</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>74686.68842134147</v>
+        <v>7951059.172032856</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>85111.18891813575</v>
+        <v>9053014.082323873</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>95613.26305305459</v>
+        <v>10097487.54799346</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>106143.5240189816</v>
+        <v>11210617.2341987</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>116568.2585537472</v>
+        <v>12312572.14448973</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>126992.9930885128</v>
+        <v>13414527.05478076</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>137417.7276232785</v>
+        <v>14516481.96507178</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>147906.8059376117</v>
+        <v>15570889.07243314</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>159134.4452318061</v>
+        <v>16519536.46930254</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>362.0000000000262</v>
@@ -27052,10 +27052,10 @@
         <v>25.99999999997385</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,16 +27144,16 @@
         <v>421</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
